--- a/team_specific_matrix/Air Force_B.xlsx
+++ b/team_specific_matrix/Air Force_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.173469387755102</v>
+        <v>0.1845018450184502</v>
       </c>
       <c r="C2">
-        <v>0.6020408163265306</v>
+        <v>0.5867158671586716</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1173469387755102</v>
+        <v>0.1254612546125461</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1071428571428571</v>
+        <v>0.09225092250922509</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C3">
-        <v>0.046875</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0390625</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7421875</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1640625</v>
+        <v>0.1802325581395349</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7037037037037037</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0457516339869281</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0130718954248366</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="F6">
-        <v>0.06535947712418301</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2156862745098039</v>
+        <v>0.2512562814070352</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006535947712418301</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2091503267973856</v>
+        <v>0.2110552763819095</v>
       </c>
       <c r="R6">
-        <v>0.0718954248366013</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S6">
-        <v>0.3725490196078431</v>
+        <v>0.3366834170854272</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1296296296296296</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009259259259259259</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="E7">
-        <v>0.009259259259259259</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="F7">
-        <v>0.07407407407407407</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1203703703703704</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03703703703703703</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1481481481481481</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="R7">
-        <v>0.07407407407407407</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="S7">
-        <v>0.3981481481481481</v>
+        <v>0.3931034482758621</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1264822134387352</v>
+        <v>0.1155015197568389</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0158102766798419</v>
+        <v>0.01519756838905775</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04347826086956522</v>
+        <v>0.05167173252279635</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1146245059288538</v>
+        <v>0.1155015197568389</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02371541501976284</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2015810276679842</v>
+        <v>0.2066869300911854</v>
       </c>
       <c r="R8">
-        <v>0.08300395256916997</v>
+        <v>0.07598784194528875</v>
       </c>
       <c r="S8">
-        <v>0.391304347826087</v>
+        <v>0.4012158054711246</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1242603550295858</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02958579881656805</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08284023668639054</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1124260355029586</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01183431952662722</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2189349112426036</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R9">
-        <v>0.0650887573964497</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.3550295857988165</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1017369727047146</v>
+        <v>0.1163434903047091</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02109181141439206</v>
+        <v>0.02123730378578024</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08064516129032258</v>
+        <v>0.07571560480147738</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1129032258064516</v>
+        <v>0.1218836565096953</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02481389578163772</v>
+        <v>0.0221606648199446</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2084367245657568</v>
+        <v>0.1939058171745152</v>
       </c>
       <c r="R10">
-        <v>0.1141439205955335</v>
+        <v>0.100646352723915</v>
       </c>
       <c r="S10">
-        <v>0.3362282878411911</v>
+        <v>0.3481071098799631</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1861702127659574</v>
+        <v>0.1778656126482213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1276595744680851</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="K11">
-        <v>0.2340425531914894</v>
+        <v>0.2292490118577075</v>
       </c>
       <c r="L11">
-        <v>0.4414893617021277</v>
+        <v>0.4703557312252964</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01063829787234043</v>
+        <v>0.007905138339920948</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7228915662650602</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2409638554216867</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="K12">
-        <v>0.01204819277108434</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02409638554216868</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8095238095238095</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1428571428571428</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02469135802469136</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1172839506172839</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="I15">
-        <v>0.08024691358024691</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="J15">
-        <v>0.4074074074074074</v>
+        <v>0.4018264840182648</v>
       </c>
       <c r="K15">
-        <v>0.03703703703703703</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04938271604938271</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2716049382716049</v>
+        <v>0.2694063926940639</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01526717557251908</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1145038167938931</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I16">
-        <v>0.1679389312977099</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J16">
-        <v>0.3511450381679389</v>
+        <v>0.35</v>
       </c>
       <c r="K16">
-        <v>0.1145038167938931</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007633587786259542</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04580152671755725</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.183206106870229</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01683501683501683</v>
+        <v>0.01591511936339523</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1515151515151515</v>
+        <v>0.1697612732095491</v>
       </c>
       <c r="I17">
-        <v>0.1548821548821549</v>
+        <v>0.143236074270557</v>
       </c>
       <c r="J17">
-        <v>0.4107744107744108</v>
+        <v>0.4058355437665783</v>
       </c>
       <c r="K17">
-        <v>0.07744107744107744</v>
+        <v>0.08488063660477453</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01346801346801347</v>
+        <v>0.01061007957559682</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06734006734006734</v>
+        <v>0.07427055702917772</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1077441077441077</v>
+        <v>0.09549071618037135</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02083333333333333</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1319444444444444</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="I18">
-        <v>0.1597222222222222</v>
+        <v>0.1767955801104972</v>
       </c>
       <c r="J18">
-        <v>0.375</v>
+        <v>0.3591160220994475</v>
       </c>
       <c r="K18">
-        <v>0.09722222222222222</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006944444444444444</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09027777777777778</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1180555555555556</v>
+        <v>0.1049723756906077</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0199468085106383</v>
+        <v>0.01715438950554995</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2101063829787234</v>
+        <v>0.1987891019172553</v>
       </c>
       <c r="I19">
-        <v>0.0851063829787234</v>
+        <v>0.08476286579212916</v>
       </c>
       <c r="J19">
-        <v>0.3843085106382979</v>
+        <v>0.3925327951564077</v>
       </c>
       <c r="K19">
-        <v>0.1063829787234043</v>
+        <v>0.1130171543895055</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01728723404255319</v>
+        <v>0.01513622603430878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08776595744680851</v>
+        <v>0.09283551967709384</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08909574468085106</v>
+        <v>0.08577194752774975</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Air Force_B.xlsx
+++ b/team_specific_matrix/Air Force_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1845018450184502</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5867158671586716</v>
+        <v>0.5746031746031746</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01107011070110701</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1254612546125461</v>
+        <v>0.1365079365079365</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09225092250922509</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005813953488372093</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="C3">
-        <v>0.04651162790697674</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04069767441860465</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7267441860465116</v>
+        <v>0.7258883248730964</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1802325581395349</v>
+        <v>0.1776649746192893</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04522613065326633</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01005025125628141</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="F6">
-        <v>0.05527638190954774</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2512562814070352</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01507537688442211</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2110552763819095</v>
+        <v>0.2146118721461187</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="S6">
-        <v>0.3366834170854272</v>
+        <v>0.3424657534246575</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1172413793103448</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02758620689655172</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="E7">
-        <v>0.006896551724137931</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="F7">
-        <v>0.06206896551724138</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1103448275862069</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04137931034482759</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1517241379310345</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="R7">
-        <v>0.0896551724137931</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="S7">
-        <v>0.3931034482758621</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1155015197568389</v>
+        <v>0.1243386243386243</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01519756838905775</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05167173252279635</v>
+        <v>0.05026455026455026</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1155015197568389</v>
+        <v>0.1137566137566138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0182370820668693</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2066869300911854</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="R8">
-        <v>0.07598784194528875</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="S8">
-        <v>0.4012158054711246</v>
+        <v>0.3862433862433862</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1064814814814815</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02314814814814815</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09259259259259259</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02314814814814815</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2083333333333333</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="S9">
-        <v>0.3518518518518519</v>
+        <v>0.3417721518987342</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1163434903047091</v>
+        <v>0.1200657894736842</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02123730378578024</v>
+        <v>0.02384868421052632</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008223684210526315</v>
       </c>
       <c r="F10">
-        <v>0.07571560480147738</v>
+        <v>0.07648026315789473</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1218836565096953</v>
+        <v>0.1208881578947368</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0221606648199446</v>
+        <v>0.02138157894736842</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1939058171745152</v>
+        <v>0.1990131578947368</v>
       </c>
       <c r="R10">
-        <v>0.100646352723915</v>
+        <v>0.09375</v>
       </c>
       <c r="S10">
-        <v>0.3481071098799631</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1778656126482213</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1146245059288538</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="K11">
-        <v>0.2292490118577075</v>
+        <v>0.2296296296296296</v>
       </c>
       <c r="L11">
-        <v>0.4703557312252964</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007905138339920948</v>
+        <v>0.007407407407407408</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7049180327868853</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2459016393442623</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L12">
-        <v>0.01639344262295082</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.02307692307692308</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0319634703196347</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1050228310502283</v>
+        <v>0.1155378486055777</v>
       </c>
       <c r="I15">
-        <v>0.091324200913242</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="J15">
-        <v>0.4018264840182648</v>
+        <v>0.4143426294820717</v>
       </c>
       <c r="K15">
-        <v>0.045662100456621</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0136986301369863</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0410958904109589</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2694063926940639</v>
+        <v>0.2470119521912351</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1333333333333333</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="I16">
-        <v>0.1388888888888889</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="J16">
-        <v>0.35</v>
+        <v>0.3457943925233645</v>
       </c>
       <c r="K16">
-        <v>0.09444444444444444</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1833333333333333</v>
+        <v>0.1682242990654206</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01591511936339523</v>
+        <v>0.0138568129330254</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1697612732095491</v>
+        <v>0.1778290993071593</v>
       </c>
       <c r="I17">
-        <v>0.143236074270557</v>
+        <v>0.1478060046189376</v>
       </c>
       <c r="J17">
-        <v>0.4058355437665783</v>
+        <v>0.4110854503464203</v>
       </c>
       <c r="K17">
-        <v>0.08488063660477453</v>
+        <v>0.07852193995381063</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01061007957559682</v>
+        <v>0.009237875288683603</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07427055702917772</v>
+        <v>0.07390300230946882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09549071618037135</v>
+        <v>0.08775981524249422</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02762430939226519</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1491712707182321</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="I18">
-        <v>0.1767955801104972</v>
+        <v>0.1709844559585492</v>
       </c>
       <c r="J18">
-        <v>0.3591160220994475</v>
+        <v>0.3678756476683938</v>
       </c>
       <c r="K18">
-        <v>0.09944751381215469</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005524861878453038</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07734806629834254</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1049723756906077</v>
+        <v>0.1036269430051813</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01715438950554995</v>
+        <v>0.01571164510166359</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1987891019172553</v>
+        <v>0.2042513863216266</v>
       </c>
       <c r="I19">
-        <v>0.08476286579212916</v>
+        <v>0.08317929759704251</v>
       </c>
       <c r="J19">
-        <v>0.3925327951564077</v>
+        <v>0.3964879852125693</v>
       </c>
       <c r="K19">
-        <v>0.1130171543895055</v>
+        <v>0.1081330868761553</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01513622603430878</v>
+        <v>0.01386321626617375</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09283551967709384</v>
+        <v>0.09611829944547134</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08577194752774975</v>
+        <v>0.0822550831792976</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Air Force_B.xlsx
+++ b/team_specific_matrix/Air Force_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1904761904761905</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C2">
-        <v>0.5746031746031746</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1365079365079365</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08888888888888889</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005076142131979695</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="C3">
-        <v>0.05076142131979695</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04060913705583756</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7258883248730964</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1776649746192893</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1777777777777778</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0502283105022831</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="E6">
-        <v>0.0091324200913242</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="F6">
-        <v>0.0547945205479452</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2465753424657534</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2146118721461187</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R6">
-        <v>0.0684931506849315</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="S6">
-        <v>0.3424657534246575</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1161290322580645</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02580645161290323</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="E7">
-        <v>0.006451612903225806</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1096774193548387</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03870967741935484</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1548387096774194</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="R7">
-        <v>0.08387096774193549</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4025157232704403</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1243386243386243</v>
+        <v>0.1253263707571801</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05026455026455026</v>
+        <v>0.04960835509138381</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1137566137566138</v>
+        <v>0.1148825065274151</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2116402116402116</v>
+        <v>0.2088772845953002</v>
       </c>
       <c r="R8">
-        <v>0.08201058201058201</v>
+        <v>0.08355091383812011</v>
       </c>
       <c r="S8">
-        <v>0.3862433862433862</v>
+        <v>0.3864229765013055</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1012658227848101</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02531645569620253</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08860759493670886</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1308016877637131</v>
+        <v>0.1314741035856574</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02109704641350211</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2109704641350211</v>
+        <v>0.2111553784860558</v>
       </c>
       <c r="R9">
-        <v>0.08016877637130802</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="S9">
-        <v>0.3417721518987342</v>
+        <v>0.3386454183266932</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1200657894736842</v>
+        <v>0.1208267090620032</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02384868421052632</v>
+        <v>0.02305246422893482</v>
       </c>
       <c r="E10">
-        <v>0.0008223684210526315</v>
+        <v>0.000794912559618442</v>
       </c>
       <c r="F10">
-        <v>0.07648026315789473</v>
+        <v>0.07710651828298887</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1208881578947368</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02138157894736842</v>
+        <v>0.02066772655007949</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1990131578947368</v>
+        <v>0.1987281399046105</v>
       </c>
       <c r="R10">
-        <v>0.09375</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="S10">
-        <v>0.34375</v>
+        <v>0.3426073131955485</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1777777777777778</v>
+        <v>0.1781818181818182</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1185185185185185</v>
+        <v>0.1163636363636364</v>
       </c>
       <c r="K11">
-        <v>0.2296296296296296</v>
+        <v>0.2290909090909091</v>
       </c>
       <c r="L11">
-        <v>0.4666666666666667</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007407407407407408</v>
+        <v>0.007272727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7076923076923077</v>
+        <v>0.706766917293233</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2384615384615385</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="L12">
-        <v>0.02307692307692308</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02307692307692308</v>
+        <v>0.03007518796992481</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2758620689655172</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02788844621513944</v>
+        <v>0.02734375</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1155378486055777</v>
+        <v>0.11328125</v>
       </c>
       <c r="I15">
-        <v>0.08764940239043825</v>
+        <v>0.09375</v>
       </c>
       <c r="J15">
-        <v>0.4143426294820717</v>
+        <v>0.4140625</v>
       </c>
       <c r="K15">
-        <v>0.0398406374501992</v>
+        <v>0.0390625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0199203187250996</v>
+        <v>0.01953125</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04780876494023904</v>
+        <v>0.046875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2470119521912351</v>
+        <v>0.24609375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02336448598130841</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1401869158878505</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="I16">
-        <v>0.1308411214953271</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="J16">
-        <v>0.3457943925233645</v>
+        <v>0.3587443946188341</v>
       </c>
       <c r="K16">
-        <v>0.09813084112149532</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01869158878504673</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07476635514018691</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1682242990654206</v>
+        <v>0.1659192825112108</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0138568129330254</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1778290993071593</v>
+        <v>0.1722595078299776</v>
       </c>
       <c r="I17">
-        <v>0.1478060046189376</v>
+        <v>0.1521252796420582</v>
       </c>
       <c r="J17">
-        <v>0.4110854503464203</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="K17">
-        <v>0.07852193995381063</v>
+        <v>0.07829977628635347</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009237875288683603</v>
+        <v>0.008948545861297539</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07390300230946882</v>
+        <v>0.07158836689038031</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08775981524249422</v>
+        <v>0.0894854586129754</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02590673575129534</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1398963730569948</v>
+        <v>0.14</v>
       </c>
       <c r="I18">
-        <v>0.1709844559585492</v>
+        <v>0.175</v>
       </c>
       <c r="J18">
-        <v>0.3678756476683938</v>
+        <v>0.37</v>
       </c>
       <c r="K18">
-        <v>0.1036269430051813</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005181347150259068</v>
+        <v>0.005</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08290155440414508</v>
+        <v>0.08</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1036269430051813</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01571164510166359</v>
+        <v>0.01617250673854448</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2042513863216266</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="I19">
-        <v>0.08317929759704251</v>
+        <v>0.0862533692722372</v>
       </c>
       <c r="J19">
-        <v>0.3964879852125693</v>
+        <v>0.3980233602875112</v>
       </c>
       <c r="K19">
-        <v>0.1081330868761553</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01386321626617375</v>
+        <v>0.01437556154537287</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09611829944547134</v>
+        <v>0.09613656783468104</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0822550831792976</v>
+        <v>0.08086253369272237</v>
       </c>
     </row>
   </sheetData>
